--- a/docs/CareConnect-ReferralRequest-1.xlsx
+++ b/docs/CareConnect-ReferralRequest-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2056" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2056" uniqueCount="368">
   <si>
     <t>Path</t>
   </si>
@@ -338,6 +338,20 @@
 </t>
   </si>
   <si>
+    <t>The method used to communicate the referral such as fax, NHS e-Referral Service, secure email, etc...</t>
+  </si>
+  <si>
+    <t>The method used to send or receive a Referral Request.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>sourceOfReferral</t>
   </si>
   <si>
@@ -345,6 +359,12 @@
 </t>
   </si>
   <si>
+    <t>This represents the source of referral</t>
+  </si>
+  <si>
+    <t>The source of referral for a Referral Request.</t>
+  </si>
+  <si>
     <t>ReferralRequest.modifierExtension</t>
   </si>
   <si>
@@ -491,7 +511,7 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri</t>
+    <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -1318,7 +1338,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="73.50390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="91.69140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2350,10 +2370,10 @@
         <v>101</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2413,10 +2433,10 @@
         <v>41</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>42</v>
@@ -2433,7 +2453,7 @@
         <v>93</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>42</v>
@@ -2455,13 +2475,13 @@
         <v>42</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2521,10 +2541,10 @@
         <v>41</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>42</v>
@@ -2538,11 +2558,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2564,13 +2584,13 @@
         <v>94</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2620,7 +2640,7 @@
         <v>42</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>40</v>
@@ -2646,7 +2666,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2669,13 +2689,13 @@
         <v>50</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2726,7 +2746,7 @@
         <v>42</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>40</v>
@@ -2741,10 +2761,10 @@
         <v>42</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>42</v>
@@ -2752,7 +2772,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2775,13 +2795,13 @@
         <v>42</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2832,7 +2852,7 @@
         <v>42</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>40</v>
@@ -2853,16 +2873,16 @@
         <v>42</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -2884,13 +2904,13 @@
         <v>94</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2931,7 +2951,7 @@
         <v>97</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>42</v>
@@ -2940,7 +2960,7 @@
         <v>98</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>40</v>
@@ -2961,12 +2981,12 @@
         <v>42</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2992,16 +3012,16 @@
         <v>68</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>42</v>
@@ -3026,13 +3046,13 @@
         <v>42</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>42</v>
@@ -3050,7 +3070,7 @@
         <v>42</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>40</v>
@@ -3071,12 +3091,12 @@
         <v>92</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3099,19 +3119,19 @@
         <v>50</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>42</v>
@@ -3139,10 +3159,10 @@
         <v>72</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>42</v>
@@ -3160,7 +3180,7 @@
         <v>42</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>40</v>
@@ -3178,15 +3198,15 @@
         <v>42</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3212,14 +3232,14 @@
         <v>62</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" t="s" s="2">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>42</v>
@@ -3232,7 +3252,7 @@
         <v>42</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>42</v>
@@ -3268,7 +3288,7 @@
         <v>42</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>40</v>
@@ -3286,15 +3306,15 @@
         <v>42</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3317,16 +3337,16 @@
         <v>50</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3340,7 +3360,7 @@
         <v>42</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>42</v>
@@ -3376,7 +3396,7 @@
         <v>42</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>40</v>
@@ -3394,15 +3414,15 @@
         <v>42</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3425,13 +3445,13 @@
         <v>50</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3482,7 +3502,7 @@
         <v>42</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
@@ -3500,15 +3520,15 @@
         <v>42</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3531,16 +3551,16 @@
         <v>50</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3590,7 +3610,7 @@
         <v>42</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
@@ -3608,15 +3628,15 @@
         <v>42</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3639,13 +3659,13 @@
         <v>50</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3696,7 +3716,7 @@
         <v>42</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
@@ -3717,16 +3737,16 @@
         <v>42</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3745,13 +3765,13 @@
         <v>50</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3802,7 +3822,7 @@
         <v>42</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
@@ -3828,11 +3848,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3851,19 +3871,19 @@
         <v>50</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>42</v>
@@ -3912,7 +3932,7 @@
         <v>42</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>40</v>
@@ -3933,16 +3953,16 @@
         <v>42</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -3961,17 +3981,17 @@
         <v>50</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>42</v>
@@ -4020,7 +4040,7 @@
         <v>42</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
@@ -4046,7 +4066,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4069,13 +4089,13 @@
         <v>42</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4126,7 +4146,7 @@
         <v>42</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>40</v>
@@ -4147,16 +4167,16 @@
         <v>42</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4178,13 +4198,13 @@
         <v>94</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4225,7 +4245,7 @@
         <v>97</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>42</v>
@@ -4234,7 +4254,7 @@
         <v>98</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
@@ -4255,12 +4275,12 @@
         <v>42</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4286,16 +4306,16 @@
         <v>68</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>42</v>
@@ -4320,13 +4340,13 @@
         <v>42</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>42</v>
@@ -4344,7 +4364,7 @@
         <v>42</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
@@ -4365,12 +4385,12 @@
         <v>92</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4393,19 +4413,19 @@
         <v>50</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>42</v>
@@ -4433,10 +4453,10 @@
         <v>72</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>42</v>
@@ -4454,7 +4474,7 @@
         <v>42</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
@@ -4472,15 +4492,15 @@
         <v>42</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4506,14 +4526,14 @@
         <v>62</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>42</v>
@@ -4526,7 +4546,7 @@
         <v>42</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>42</v>
@@ -4562,7 +4582,7 @@
         <v>42</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
@@ -4580,15 +4600,15 @@
         <v>42</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4611,16 +4631,16 @@
         <v>50</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4634,7 +4654,7 @@
         <v>42</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>42</v>
@@ -4670,7 +4690,7 @@
         <v>42</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>40</v>
@@ -4688,15 +4708,15 @@
         <v>42</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4719,13 +4739,13 @@
         <v>50</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4776,7 +4796,7 @@
         <v>42</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
@@ -4794,15 +4814,15 @@
         <v>42</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4825,16 +4845,16 @@
         <v>50</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -4884,7 +4904,7 @@
         <v>42</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>40</v>
@@ -4902,15 +4922,15 @@
         <v>42</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4936,16 +4956,16 @@
         <v>68</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>42</v>
@@ -4970,32 +4990,32 @@
         <v>42</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Y34" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE34" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="Z34" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>209</v>
-      </c>
       <c r="AF34" t="s" s="2">
         <v>49</v>
       </c>
@@ -5009,10 +5029,10 @@
         <v>42</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>42</v>
@@ -5020,11 +5040,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5046,14 +5066,14 @@
         <v>68</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>42</v>
@@ -5078,32 +5098,32 @@
         <v>42</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Y35" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE35" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="Z35" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>218</v>
-      </c>
       <c r="AF35" t="s" s="2">
         <v>49</v>
       </c>
@@ -5117,7 +5137,7 @@
         <v>42</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>42</v>
@@ -5128,7 +5148,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5151,13 +5171,13 @@
         <v>50</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5184,49 +5204,49 @@
         <v>42</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="Y36" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="Z36" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>225</v>
-      </c>
       <c r="AK36" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>42</v>
@@ -5234,7 +5254,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5260,10 +5280,10 @@
         <v>68</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5290,13 +5310,13 @@
         <v>42</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>42</v>
@@ -5314,7 +5334,7 @@
         <v>42</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
@@ -5329,10 +5349,10 @@
         <v>42</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>42</v>
@@ -5340,7 +5360,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5363,13 +5383,13 @@
         <v>50</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5396,13 +5416,13 @@
         <v>42</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>42</v>
@@ -5420,7 +5440,7 @@
         <v>42</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
@@ -5435,10 +5455,10 @@
         <v>42</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>42</v>
@@ -5446,7 +5466,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5469,16 +5489,16 @@
         <v>50</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5528,7 +5548,7 @@
         <v>42</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>49</v>
@@ -5543,10 +5563,10 @@
         <v>42</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>42</v>
@@ -5554,11 +5574,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5577,13 +5597,13 @@
         <v>50</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5634,7 +5654,7 @@
         <v>42</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
@@ -5649,10 +5669,10 @@
         <v>42</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>42</v>
@@ -5660,11 +5680,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5683,19 +5703,19 @@
         <v>50</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>42</v>
@@ -5744,7 +5764,7 @@
         <v>42</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
@@ -5759,10 +5779,10 @@
         <v>42</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>42</v>
@@ -5770,11 +5790,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -5793,13 +5813,13 @@
         <v>50</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5850,7 +5870,7 @@
         <v>42</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>40</v>
@@ -5865,10 +5885,10 @@
         <v>42</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>42</v>
@@ -5876,11 +5896,11 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -5899,13 +5919,13 @@
         <v>50</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5956,7 +5976,7 @@
         <v>42</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>40</v>
@@ -5968,7 +5988,7 @@
         <v>42</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>42</v>
@@ -5977,12 +5997,12 @@
         <v>42</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6005,13 +6025,13 @@
         <v>42</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6062,7 +6082,7 @@
         <v>42</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
@@ -6083,16 +6103,16 @@
         <v>42</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6114,13 +6134,13 @@
         <v>94</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6170,7 +6190,7 @@
         <v>42</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
@@ -6191,16 +6211,16 @@
         <v>42</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6222,13 +6242,13 @@
         <v>94</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6278,7 +6298,7 @@
         <v>42</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
@@ -6304,7 +6324,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6327,13 +6347,13 @@
         <v>50</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6384,7 +6404,7 @@
         <v>42</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>49</v>
@@ -6399,18 +6419,18 @@
         <v>42</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6433,17 +6453,17 @@
         <v>50</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>42</v>
@@ -6492,7 +6512,7 @@
         <v>42</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>40</v>
@@ -6501,7 +6521,7 @@
         <v>49</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>42</v>
@@ -6513,12 +6533,12 @@
         <v>42</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6541,13 +6561,13 @@
         <v>42</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6574,13 +6594,13 @@
         <v>42</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>42</v>
@@ -6598,7 +6618,7 @@
         <v>42</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
@@ -6616,7 +6636,7 @@
         <v>42</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>42</v>
@@ -6624,7 +6644,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6647,16 +6667,16 @@
         <v>50</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -6706,7 +6726,7 @@
         <v>42</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>40</v>
@@ -6721,10 +6741,10 @@
         <v>42</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>42</v>
@@ -6732,7 +6752,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6755,13 +6775,13 @@
         <v>50</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6788,13 +6808,13 @@
         <v>42</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>42</v>
@@ -6812,7 +6832,7 @@
         <v>42</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>40</v>
@@ -6827,10 +6847,10 @@
         <v>42</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>42</v>
@@ -6838,7 +6858,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6861,13 +6881,13 @@
         <v>50</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6918,7 +6938,7 @@
         <v>42</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
@@ -6933,18 +6953,18 @@
         <v>42</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6967,13 +6987,13 @@
         <v>42</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7024,7 +7044,7 @@
         <v>42</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>40</v>
@@ -7050,7 +7070,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7073,13 +7093,13 @@
         <v>42</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7130,7 +7150,7 @@
         <v>42</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>40</v>
@@ -7156,7 +7176,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7179,13 +7199,13 @@
         <v>42</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7236,7 +7256,7 @@
         <v>42</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>40</v>
@@ -7262,7 +7282,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7285,13 +7305,13 @@
         <v>42</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7342,7 +7362,7 @@
         <v>42</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>40</v>
@@ -7363,16 +7383,16 @@
         <v>42</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7394,13 +7414,13 @@
         <v>94</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -7441,7 +7461,7 @@
         <v>97</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>42</v>
@@ -7450,7 +7470,7 @@
         <v>98</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>40</v>
@@ -7471,12 +7491,12 @@
         <v>42</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7499,13 +7519,13 @@
         <v>50</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7556,7 +7576,7 @@
         <v>42</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>40</v>
@@ -7577,12 +7597,12 @@
         <v>92</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7605,13 +7625,13 @@
         <v>50</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7662,7 +7682,7 @@
         <v>42</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
@@ -7683,12 +7703,12 @@
         <v>92</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7711,13 +7731,13 @@
         <v>42</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7768,7 +7788,7 @@
         <v>42</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>49</v>
@@ -7789,16 +7809,16 @@
         <v>92</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -7817,16 +7837,16 @@
         <v>42</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -7876,7 +7896,7 @@
         <v>42</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>40</v>
@@ -7897,7 +7917,7 @@
         <v>42</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
